--- a/scene_cat_exp_2023.2.2/input_files/5_scenecat_memory_kitchens_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/5_scenecat_memory_kitchens_1.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -500,50 +500,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_qmand.png</t>
+          <t>stimuli/img_aplao.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>86.11764705882354</v>
+        <v>64.09090909090909</v>
       </c>
       <c r="N2">
-        <v>71.02941176470588</v>
+        <v>40.75757575757576</v>
       </c>
       <c r="O2">
-        <v>78.57352941176471</v>
+        <v>52.42424242424242</v>
       </c>
       <c r="P2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +561,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -565,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -589,38 +594,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_l9t30.png</t>
+          <t>stimuli/img_mgnmm.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>67.2</v>
+        <v>79.14705882352941</v>
       </c>
       <c r="N3">
-        <v>43.14285714285715</v>
+        <v>60.38235294117647</v>
       </c>
       <c r="O3">
-        <v>55.17142857142858</v>
+        <v>69.76470588235294</v>
       </c>
       <c r="P3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -633,7 +638,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -642,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -654,50 +659,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_fhm45.png</t>
+          <t>stimuli/img_30vz5.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>76.75</v>
+        <v>86.21212121212122</v>
       </c>
       <c r="N4">
-        <v>57.71875</v>
+        <v>68.27272727272727</v>
       </c>
       <c r="O4">
-        <v>67.234375</v>
+        <v>77.24242424242425</v>
       </c>
       <c r="P4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +720,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -719,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -731,55 +741,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_bwo9g.png</t>
+          <t>stimuli/img_esb4r.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>64.81818181818181</v>
+        <v>60.73529411764706</v>
       </c>
       <c r="N5">
-        <v>42.36363636363637</v>
+        <v>38.58823529411764</v>
       </c>
       <c r="O5">
-        <v>53.59090909090909</v>
+        <v>49.66176470588235</v>
       </c>
       <c r="P5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -792,7 +797,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -801,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -813,55 +818,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_84s7n.png</t>
+          <t>stimuli/img_mjxmq.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>11.03125</v>
+        <v>77.07692307692308</v>
       </c>
       <c r="N6">
-        <v>2.90625</v>
+        <v>58.15384615384615</v>
       </c>
       <c r="O6">
-        <v>6.96875</v>
+        <v>67.61538461538461</v>
       </c>
       <c r="P6">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -895,55 +895,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_uwv6y.png</t>
+          <t>stimuli/img_mawe6.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>78.88888888888889</v>
+        <v>83.48387096774194</v>
       </c>
       <c r="N7">
-        <v>59.30555555555556</v>
+        <v>65.54838709677419</v>
       </c>
       <c r="O7">
-        <v>69.09722222222223</v>
+        <v>74.51612903225806</v>
       </c>
       <c r="P7">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -956,7 +951,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -965,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -989,20 +984,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_z5osu.png</t>
+          <t>stimuli/img_z293c.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>71.42857142857143</v>
+        <v>71.26470588235294</v>
       </c>
       <c r="N8">
-        <v>47.34285714285714</v>
+        <v>46.88235294117647</v>
       </c>
       <c r="O8">
-        <v>59.38571428571429</v>
+        <v>59.07352941176471</v>
       </c>
       <c r="P8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -1033,7 +1028,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1042,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1071,38 +1066,38 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_7pgd2.png</t>
+          <t>stimuli/img_iyxnj.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>78.59375</v>
+        <v>75.30555555555556</v>
       </c>
       <c r="N9">
-        <v>57.84375</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O9">
-        <v>68.21875</v>
+        <v>64.81944444444444</v>
       </c>
       <c r="P9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1115,7 +1110,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1124,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1136,50 +1131,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_h1yyu.png</t>
+          <t>stimuli/img_ce9vx.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>64.85294117647059</v>
+        <v>75.90909090909091</v>
       </c>
       <c r="N10">
-        <v>46.61764705882353</v>
+        <v>57.12121212121212</v>
       </c>
       <c r="O10">
-        <v>55.73529411764706</v>
+        <v>66.51515151515152</v>
       </c>
       <c r="P10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1213,50 +1213,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_uspja.png</t>
+          <t>stimuli/img_cv6mf.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>54.90909090909091</v>
+        <v>66.8</v>
       </c>
       <c r="N11">
-        <v>29.12121212121212</v>
+        <v>42.08</v>
       </c>
       <c r="O11">
-        <v>42.01515151515152</v>
+        <v>54.44</v>
       </c>
       <c r="P11">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1269,7 +1274,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1278,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1290,50 +1295,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_hfz8w.png</t>
+          <t>stimuli/img_p3hpc.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>55.46153846153846</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="N12">
-        <v>27.28205128205128</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="O12">
-        <v>41.37179487179487</v>
+        <v>62.52777777777777</v>
       </c>
       <c r="P12">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1346,7 +1356,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1355,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1379,38 +1389,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_01w8b.png</t>
+          <t>stimuli/img_lszzj.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>78.91891891891892</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="N13">
-        <v>61.21621621621622</v>
+        <v>45.58823529411764</v>
       </c>
       <c r="O13">
-        <v>70.06756756756756</v>
+        <v>55.14705882352941</v>
       </c>
       <c r="P13">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V13">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1423,7 +1433,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1432,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1444,55 +1454,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_xti0z.png</t>
+          <t>stimuli/img_7ucnr.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>81.40625</v>
+        <v>70.39393939393939</v>
       </c>
       <c r="N14">
-        <v>61.4375</v>
+        <v>47.90909090909091</v>
       </c>
       <c r="O14">
-        <v>71.421875</v>
+        <v>59.15151515151515</v>
       </c>
       <c r="P14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1505,7 +1510,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1514,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1538,38 +1543,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_5949k.png</t>
+          <t>stimuli/img_qmgwq.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>60.8</v>
+        <v>84.58333333333333</v>
       </c>
       <c r="N15">
-        <v>39.2</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="O15">
-        <v>50</v>
+        <v>74.51388888888889</v>
       </c>
       <c r="P15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V15">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1582,7 +1587,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1591,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1603,55 +1608,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_jz3kd.png</t>
+          <t>stimuli/img_vbrb7.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>72.79411764705883</v>
+        <v>85.5625</v>
       </c>
       <c r="N16">
-        <v>51.64705882352941</v>
+        <v>71.46875</v>
       </c>
       <c r="O16">
-        <v>62.22058823529412</v>
+        <v>78.515625</v>
       </c>
       <c r="P16">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V16">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1685,37 +1685,32 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_c0me7.png</t>
+          <t>stimuli/img_kwxq1.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>68.40000000000001</v>
+        <v>68.53125</v>
       </c>
       <c r="N17">
-        <v>45.62857142857143</v>
+        <v>44.09375</v>
       </c>
       <c r="O17">
-        <v>57.01428571428572</v>
+        <v>56.3125</v>
       </c>
       <c r="P17">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -1746,7 +1741,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1755,7 +1750,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1784,38 +1779,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_s9are.png</t>
+          <t>stimuli/img_p659z.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>90.14285714285714</v>
+        <v>84.21621621621621</v>
       </c>
       <c r="N18">
-        <v>75.22857142857143</v>
+        <v>65.37837837837837</v>
       </c>
       <c r="O18">
-        <v>82.68571428571428</v>
+        <v>74.79729729729729</v>
       </c>
       <c r="P18">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V18">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1828,7 +1823,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1837,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1849,55 +1844,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_cv9qj.png</t>
+          <t>stimuli/img_zi8qc.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>60.34375</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="N19">
-        <v>35.34375</v>
+        <v>57.02857142857143</v>
       </c>
       <c r="O19">
-        <v>47.84375</v>
+        <v>67.08571428571429</v>
       </c>
       <c r="P19">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1910,7 +1900,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1919,7 +1909,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1931,50 +1921,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_k3abb.png</t>
+          <t>stimuli/img_t90e2.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>35.54054054054054</v>
+        <v>83.0625</v>
       </c>
       <c r="N20">
-        <v>16.54054054054054</v>
+        <v>61.96875</v>
       </c>
       <c r="O20">
-        <v>26.04054054054054</v>
+        <v>72.515625</v>
       </c>
       <c r="P20">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1987,7 +1982,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1996,7 +1991,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2020,20 +2015,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_oz18d.png</t>
+          <t>stimuli/img_7ed9m.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>78.93939393939394</v>
+        <v>80.71875</v>
       </c>
       <c r="N21">
-        <v>61.03030303030303</v>
+        <v>58.65625</v>
       </c>
       <c r="O21">
-        <v>69.98484848484848</v>
+        <v>69.6875</v>
       </c>
       <c r="P21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -2064,7 +2059,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2073,27 +2068,67 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>kitchens</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/catch_10_supermarket.jpg</t>
-        </is>
+          <t>stimuli/img_inqod.png</t>
+        </is>
+      </c>
+      <c r="M22">
+        <v>70.84848484848484</v>
+      </c>
+      <c r="N22">
+        <v>50.63636363636363</v>
+      </c>
+      <c r="O22">
+        <v>60.74242424242424</v>
+      </c>
+      <c r="P22">
+        <v>33</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>5</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2141,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2115,7 +2150,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2127,55 +2162,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_411xa.png</t>
+          <t>stimuli/img_ewrjk.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>51.03030303030303</v>
+        <v>73.09090909090909</v>
       </c>
       <c r="N23">
-        <v>28.93939393939394</v>
+        <v>53.39393939393939</v>
       </c>
       <c r="O23">
-        <v>39.98484848484848</v>
+        <v>63.24242424242424</v>
       </c>
       <c r="P23">
         <v>33</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2188,7 +2218,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2197,7 +2227,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2209,32 +2239,37 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_faly8.png</t>
+          <t>stimuli/img_7wul8.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>33.41176470588236</v>
+        <v>43.03030303030303</v>
       </c>
       <c r="N24">
-        <v>19.23529411764706</v>
+        <v>25.54545454545455</v>
       </c>
       <c r="O24">
-        <v>26.32352941176471</v>
+        <v>34.28787878787879</v>
       </c>
       <c r="P24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -2265,7 +2300,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2274,67 +2309,27 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>kitchens</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_c79r7.png</t>
-        </is>
-      </c>
-      <c r="M25">
-        <v>56.26470588235294</v>
-      </c>
-      <c r="N25">
-        <v>34.26470588235294</v>
-      </c>
-      <c r="O25">
-        <v>45.26470588235294</v>
-      </c>
-      <c r="P25">
-        <v>34</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <v>2</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>2</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
+          <t>stimuli/catch_05_supermarket.jpg</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2347,7 +2342,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2356,7 +2351,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2368,55 +2363,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_ua9bs.png</t>
+          <t>stimuli/img_7w5tw.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>82</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N26">
-        <v>62.23333333333333</v>
+        <v>28.90322580645161</v>
       </c>
       <c r="O26">
-        <v>72.11666666666667</v>
+        <v>41.06451612903226</v>
       </c>
       <c r="P26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2429,7 +2419,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2438,7 +2428,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2462,38 +2452,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_u9f9l.png</t>
+          <t>stimuli/img_1ao2d.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>77.78571428571429</v>
+        <v>38.77777777777778</v>
       </c>
       <c r="N27">
-        <v>57.25</v>
+        <v>18.75</v>
       </c>
       <c r="O27">
-        <v>67.51785714285714</v>
+        <v>28.76388888888889</v>
       </c>
       <c r="P27">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2506,7 +2496,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2515,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2544,38 +2534,38 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_j5rpx.png</t>
+          <t>stimuli/img_yeh72.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>72.24242424242425</v>
+        <v>68.66666666666667</v>
       </c>
       <c r="N28">
-        <v>50</v>
+        <v>45.21212121212121</v>
       </c>
       <c r="O28">
-        <v>61.12121212121212</v>
+        <v>56.93939393939394</v>
       </c>
       <c r="P28">
         <v>33</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2588,7 +2578,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2597,7 +2587,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2626,38 +2616,38 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_ncr40.png</t>
+          <t>stimuli/img_eatdk.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>75.66666666666667</v>
+        <v>81.40625</v>
       </c>
       <c r="N29">
-        <v>54.27272727272727</v>
+        <v>61.375</v>
       </c>
       <c r="O29">
-        <v>64.96969696969697</v>
+        <v>71.390625</v>
       </c>
       <c r="P29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V29">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2670,7 +2660,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2679,7 +2669,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2708,38 +2698,38 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_a8wvq.png</t>
+          <t>stimuli/img_wyl6z.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>86.25925925925925</v>
+        <v>59.8235294117647</v>
       </c>
       <c r="N30">
-        <v>66.25925925925925</v>
+        <v>36.23529411764706</v>
       </c>
       <c r="O30">
-        <v>76.25925925925925</v>
+        <v>48.02941176470588</v>
       </c>
       <c r="P30">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R30">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S30">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2752,7 +2742,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2761,7 +2751,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2773,50 +2763,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_0j24m.png</t>
+          <t>stimuli/img_nyv2b.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>63.6969696969697</v>
+        <v>11.91176470588235</v>
       </c>
       <c r="N31">
-        <v>35.75757575757576</v>
+        <v>6.852941176470588</v>
       </c>
       <c r="O31">
-        <v>49.72727272727273</v>
+        <v>9.382352941176471</v>
       </c>
       <c r="P31">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2829,7 +2824,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2838,7 +2833,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2862,38 +2857,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_t1cr9.png</t>
+          <t>stimuli/img_r2lxk.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>73.66666666666667</v>
+        <v>89.24242424242425</v>
       </c>
       <c r="N32">
-        <v>53.51515151515152</v>
+        <v>67.6969696969697</v>
       </c>
       <c r="O32">
-        <v>63.59090909090909</v>
+        <v>78.46969696969697</v>
       </c>
       <c r="P32">
         <v>33</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V32">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2906,7 +2901,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2915,7 +2910,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2944,38 +2939,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_uy1n4.png</t>
+          <t>stimuli/img_njmgp.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>76.30555555555556</v>
+        <v>80.48148148148148</v>
       </c>
       <c r="N33">
-        <v>55.33333333333334</v>
+        <v>58.4074074074074</v>
       </c>
       <c r="O33">
-        <v>65.81944444444444</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="P33">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V33">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2988,7 +2983,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2997,7 +2992,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3026,38 +3021,38 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_ifebc.png</t>
+          <t>stimuli/img_cnyac.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>84</v>
+        <v>69.14705882352941</v>
       </c>
       <c r="N34">
-        <v>65.88235294117646</v>
+        <v>47.8235294117647</v>
       </c>
       <c r="O34">
-        <v>74.94117647058823</v>
+        <v>58.48529411764706</v>
       </c>
       <c r="P34">
         <v>34</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V34">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3070,7 +3065,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3079,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3103,38 +3098,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_57os5.png</t>
+          <t>stimuli/img_ikk62.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>82.70588235294117</v>
+        <v>37.48780487804878</v>
       </c>
       <c r="N35">
-        <v>65.73529411764706</v>
+        <v>21.07317073170732</v>
       </c>
       <c r="O35">
-        <v>74.22058823529412</v>
+        <v>29.28048780487805</v>
       </c>
       <c r="P35">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3147,7 +3142,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3156,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3180,38 +3175,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_as3da.png</t>
+          <t>stimuli/img_89rmb.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>84.53125</v>
+        <v>55.18518518518518</v>
       </c>
       <c r="N36">
-        <v>63</v>
+        <v>29.25925925925926</v>
       </c>
       <c r="O36">
-        <v>73.765625</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="P36">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3224,7 +3219,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3233,7 +3228,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3262,38 +3257,38 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_xesl0.png</t>
+          <t>stimuli/img_d8xbu.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>69.28571428571429</v>
+        <v>91.36363636363636</v>
       </c>
       <c r="N37">
-        <v>47.35714285714285</v>
+        <v>73.18181818181819</v>
       </c>
       <c r="O37">
-        <v>58.32142857142857</v>
+        <v>82.27272727272728</v>
       </c>
       <c r="P37">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V37">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3306,7 +3301,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3315,7 +3310,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3327,55 +3322,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_05flq.png</t>
+          <t>stimuli/img_xdhz2.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>47.10344827586207</v>
+        <v>63.3</v>
       </c>
       <c r="N38">
-        <v>25.72413793103448</v>
+        <v>37.25</v>
       </c>
       <c r="O38">
-        <v>36.41379310344828</v>
+        <v>50.275</v>
       </c>
       <c r="P38">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3388,7 +3378,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3397,7 +3387,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3426,38 +3416,38 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_i2k07.png</t>
+          <t>stimuli/img_ye5sl.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>64.25925925925925</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N39">
-        <v>40.92592592592592</v>
+        <v>34.45161290322581</v>
       </c>
       <c r="O39">
-        <v>52.59259259259259</v>
+        <v>43.83870967741936</v>
       </c>
       <c r="P39">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3470,7 +3460,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3479,7 +3469,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3491,50 +3481,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_qbkdt.png</t>
+          <t>stimuli/img_es7o2.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>69.45714285714286</v>
+        <v>52.48571428571429</v>
       </c>
       <c r="N40">
-        <v>50.02857142857143</v>
+        <v>27.54285714285714</v>
       </c>
       <c r="O40">
-        <v>59.74285714285715</v>
+        <v>40.01428571428572</v>
       </c>
       <c r="P40">
         <v>35</v>
       </c>
       <c r="Q40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3547,7 +3542,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3556,7 +3551,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3580,20 +3575,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_ensho.png</t>
+          <t>stimuli/img_wppku.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>72.7948717948718</v>
+        <v>75.02941176470588</v>
       </c>
       <c r="N41">
-        <v>54.56410256410256</v>
+        <v>53.05882352941177</v>
       </c>
       <c r="O41">
-        <v>63.67948717948718</v>
+        <v>64.04411764705883</v>
       </c>
       <c r="P41">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -3624,7 +3619,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3633,7 +3628,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3645,50 +3640,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_8fpog.png</t>
+          <t>stimuli/img_6nbgt.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>85.41666666666667</v>
+        <v>78.45161290322581</v>
       </c>
       <c r="N42">
-        <v>72.30555555555556</v>
+        <v>57.83870967741935</v>
       </c>
       <c r="O42">
-        <v>78.86111111111111</v>
+        <v>68.14516129032258</v>
       </c>
       <c r="P42">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V42">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2.2/input_files/5_scenecat_memory_kitchens_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/5_scenecat_memory_kitchens_1.xlsx
@@ -517,38 +517,38 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_aplao.png</t>
+          <t>stimuli/img_inqod.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>64.09090909090909</v>
+        <v>70.84848484848484</v>
       </c>
       <c r="N2">
-        <v>40.75757575757576</v>
+        <v>50.63636363636363</v>
       </c>
       <c r="O2">
-        <v>52.42424242424242</v>
+        <v>60.74242424242424</v>
       </c>
       <c r="P2">
         <v>33</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -582,50 +582,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_mgnmm.png</t>
+          <t>stimuli/img_aplao.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>79.14705882352941</v>
+        <v>64.09090909090909</v>
       </c>
       <c r="N3">
-        <v>60.38235294117647</v>
+        <v>40.75757575757576</v>
       </c>
       <c r="O3">
-        <v>69.76470588235294</v>
+        <v>52.42424242424242</v>
       </c>
       <c r="P3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -659,55 +664,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_30vz5.png</t>
+          <t>stimuli/img_mgnmm.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>86.21212121212122</v>
+        <v>79.14705882352941</v>
       </c>
       <c r="N4">
-        <v>68.27272727272727</v>
+        <v>60.38235294117647</v>
       </c>
       <c r="O4">
-        <v>77.24242424242425</v>
+        <v>69.76470588235294</v>
       </c>
       <c r="P4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -741,50 +741,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_esb4r.png</t>
+          <t>stimuli/img_30vz5.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>60.73529411764706</v>
+        <v>86.21212121212122</v>
       </c>
       <c r="N5">
-        <v>38.58823529411764</v>
+        <v>68.27272727272727</v>
       </c>
       <c r="O5">
-        <v>49.66176470588235</v>
+        <v>77.24242424242425</v>
       </c>
       <c r="P5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -830,38 +835,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_mjxmq.png</t>
+          <t>stimuli/img_esb4r.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>77.07692307692308</v>
+        <v>60.73529411764706</v>
       </c>
       <c r="N6">
-        <v>58.15384615384615</v>
+        <v>38.58823529411764</v>
       </c>
       <c r="O6">
-        <v>67.61538461538461</v>
+        <v>49.66176470588235</v>
       </c>
       <c r="P6">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -907,38 +912,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_mawe6.png</t>
+          <t>stimuli/img_mjxmq.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>83.48387096774194</v>
+        <v>77.07692307692308</v>
       </c>
       <c r="N7">
-        <v>65.54838709677419</v>
+        <v>58.15384615384615</v>
       </c>
       <c r="O7">
-        <v>74.51612903225806</v>
+        <v>67.61538461538461</v>
       </c>
       <c r="P7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V7">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -984,38 +989,38 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_z293c.png</t>
+          <t>stimuli/img_qmgwq.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>71.26470588235294</v>
+        <v>84.58333333333333</v>
       </c>
       <c r="N8">
-        <v>46.88235294117647</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="O8">
-        <v>59.07352941176471</v>
+        <v>74.51388888888889</v>
       </c>
       <c r="P8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1049,55 +1054,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_iyxnj.png</t>
+          <t>stimuli/img_z293c.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>75.30555555555556</v>
+        <v>71.26470588235294</v>
       </c>
       <c r="N9">
-        <v>54.33333333333334</v>
+        <v>46.88235294117647</v>
       </c>
       <c r="O9">
-        <v>64.81944444444444</v>
+        <v>59.07352941176471</v>
       </c>
       <c r="P9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1131,55 +1131,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_ce9vx.png</t>
+          <t>stimuli/img_vbrb7.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>75.90909090909091</v>
+        <v>85.5625</v>
       </c>
       <c r="N10">
-        <v>57.12121212121212</v>
+        <v>71.46875</v>
       </c>
       <c r="O10">
-        <v>66.51515151515152</v>
+        <v>78.515625</v>
       </c>
       <c r="P10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V10">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1230,38 +1225,38 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_cv6mf.png</t>
+          <t>stimuli/img_iyxnj.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>66.8</v>
+        <v>75.30555555555556</v>
       </c>
       <c r="N11">
-        <v>42.08</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O11">
-        <v>54.44</v>
+        <v>64.81944444444444</v>
       </c>
       <c r="P11">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1312,38 +1307,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_p3hpc.png</t>
+          <t>stimuli/img_ce9vx.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>72.83333333333333</v>
+        <v>75.90909090909091</v>
       </c>
       <c r="N12">
-        <v>52.22222222222222</v>
+        <v>57.12121212121212</v>
       </c>
       <c r="O12">
-        <v>62.52777777777777</v>
+        <v>66.51515151515152</v>
       </c>
       <c r="P12">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1377,32 +1372,37 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_lszzj.png</t>
+          <t>stimuli/img_cv6mf.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>64.70588235294117</v>
+        <v>66.8</v>
       </c>
       <c r="N13">
-        <v>45.58823529411764</v>
+        <v>42.08</v>
       </c>
       <c r="O13">
-        <v>55.14705882352941</v>
+        <v>54.44</v>
       </c>
       <c r="P13">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -1454,50 +1454,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_7ucnr.png</t>
+          <t>stimuli/img_p3hpc.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>70.39393939393939</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="N14">
-        <v>47.90909090909091</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="O14">
-        <v>59.15151515151515</v>
+        <v>62.52777777777777</v>
       </c>
       <c r="P14">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1543,38 +1548,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_qmgwq.png</t>
+          <t>stimuli/img_lszzj.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>84.58333333333333</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="N15">
-        <v>64.44444444444444</v>
+        <v>45.58823529411764</v>
       </c>
       <c r="O15">
-        <v>74.51388888888889</v>
+        <v>55.14705882352941</v>
       </c>
       <c r="P15">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V15">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1620,38 +1625,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_vbrb7.png</t>
+          <t>stimuli/img_7ed9m.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>85.5625</v>
+        <v>80.71875</v>
       </c>
       <c r="N16">
-        <v>71.46875</v>
+        <v>58.65625</v>
       </c>
       <c r="O16">
-        <v>78.515625</v>
+        <v>69.6875</v>
       </c>
       <c r="P16">
         <v>32</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1697,38 +1702,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_kwxq1.png</t>
+          <t>stimuli/img_r2lxk.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>68.53125</v>
+        <v>89.24242424242425</v>
       </c>
       <c r="N17">
-        <v>44.09375</v>
+        <v>67.6969696969697</v>
       </c>
       <c r="O17">
-        <v>56.3125</v>
+        <v>78.46969696969697</v>
       </c>
       <c r="P17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V17">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1856,38 +1861,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_zi8qc.png</t>
+          <t>stimuli/img_ewrjk.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>77.14285714285714</v>
+        <v>73.09090909090909</v>
       </c>
       <c r="N19">
-        <v>57.02857142857143</v>
+        <v>53.39393939393939</v>
       </c>
       <c r="O19">
-        <v>67.08571428571429</v>
+        <v>63.24242424242424</v>
       </c>
       <c r="P19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1998,14 +2003,9 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>kitchens</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2015,38 +2015,8 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_7ed9m.png</t>
-        </is>
-      </c>
-      <c r="M21">
-        <v>80.71875</v>
-      </c>
-      <c r="N21">
-        <v>58.65625</v>
-      </c>
-      <c r="O21">
-        <v>69.6875</v>
-      </c>
-      <c r="P21">
-        <v>32</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
-      </c>
-      <c r="R21">
-        <v>8</v>
-      </c>
-      <c r="S21">
-        <v>8</v>
-      </c>
-      <c r="T21">
-        <v>8</v>
-      </c>
-      <c r="U21">
-        <v>8</v>
-      </c>
-      <c r="V21">
-        <v>8</v>
+          <t>stimuli/catch_28.jpg</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2080,55 +2050,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_inqod.png</t>
+          <t>stimuli/img_kwxq1.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>70.84848484848484</v>
+        <v>68.53125</v>
       </c>
       <c r="N22">
-        <v>50.63636363636363</v>
+        <v>44.09375</v>
       </c>
       <c r="O22">
-        <v>60.74242424242424</v>
+        <v>56.3125</v>
       </c>
       <c r="P22">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2174,20 +2139,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_ewrjk.png</t>
+          <t>stimuli/img_wppku.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>73.09090909090909</v>
+        <v>75.02941176470588</v>
       </c>
       <c r="N23">
-        <v>53.39393939393939</v>
+        <v>53.05882352941177</v>
       </c>
       <c r="O23">
-        <v>63.24242424242424</v>
+        <v>64.04411764705883</v>
       </c>
       <c r="P23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -2239,55 +2204,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_7wul8.png</t>
+          <t>stimuli/img_7ucnr.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>43.03030303030303</v>
+        <v>70.39393939393939</v>
       </c>
       <c r="N24">
-        <v>25.54545454545455</v>
+        <v>47.90909090909091</v>
       </c>
       <c r="O24">
-        <v>34.28787878787879</v>
+        <v>59.15151515151515</v>
       </c>
       <c r="P24">
         <v>33</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2316,20 +2276,60 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/catch_05_supermarket.jpg</t>
-        </is>
+          <t>stimuli/img_7wul8.png</t>
+        </is>
+      </c>
+      <c r="M25">
+        <v>43.03030303030303</v>
+      </c>
+      <c r="N25">
+        <v>25.54545454545455</v>
+      </c>
+      <c r="O25">
+        <v>34.28787878787879</v>
+      </c>
+      <c r="P25">
+        <v>33</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2857,38 +2857,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_r2lxk.png</t>
+          <t>stimuli/img_mawe6.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>89.24242424242425</v>
+        <v>83.48387096774194</v>
       </c>
       <c r="N32">
-        <v>67.6969696969697</v>
+        <v>65.54838709677419</v>
       </c>
       <c r="O32">
-        <v>78.46969696969697</v>
+        <v>74.51612903225806</v>
       </c>
       <c r="P32">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -3575,38 +3575,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_wppku.png</t>
+          <t>stimuli/img_zi8qc.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>75.02941176470588</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="N41">
-        <v>53.05882352941177</v>
+        <v>57.02857142857143</v>
       </c>
       <c r="O41">
-        <v>64.04411764705883</v>
+        <v>67.08571428571429</v>
       </c>
       <c r="P41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V41">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
